--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7317A29F-19D0-4859-9F95-BC3C0C3C2C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C094F70-F245-4891-B990-972DFEC0C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -549,9 +549,6 @@
     <t>Simulations/bolivia_base_2020</t>
   </si>
   <si>
-    <t>HydroData/ReservoirLevel/##/2020.csv</t>
-  </si>
-  <si>
     <t>nb</t>
   </si>
   <si>
@@ -561,13 +558,16 @@
     <t>OutageFactors/##/2020_UH.csv</t>
   </si>
   <si>
-    <t>PowerPlants/##/2020_HU.csv</t>
-  </si>
-  <si>
     <t>AvailabilityFactors/##/2020_HU.csv</t>
   </si>
   <si>
     <t>HydroData/ScaledInflows/##/1980.csv</t>
+  </si>
+  <si>
+    <t>PowerPlants/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>HydroData/ReservoirLevel/##/2020_HU.csv</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1271,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>10</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>63</v>
@@ -1911,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -1928,7 +1928,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>63</v>
@@ -1963,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>63</v>
@@ -1995,7 +1995,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>63</v>
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C094F70-F245-4891-B990-972DFEC0C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C03586-B23E-459F-9FCD-36B8CCD5DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$78:$C$99</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="180">
   <si>
     <t>Default value</t>
   </si>
@@ -543,31 +543,28 @@
     <t>Load/##/2020.csv</t>
   </si>
   <si>
+    <t>OutageFactors/##/2020.csv</t>
+  </si>
+  <si>
+    <t>NTC/NTC_2020.csv</t>
+  </si>
+  <si>
     <t>Bolivia 2020 case study configuration file research purposes. Four zones (CE, NO, OR, SU) are simulated. The simulated period is 1 year</t>
   </si>
   <si>
     <t>Simulations/bolivia_base_2020</t>
   </si>
   <si>
-    <t>nb</t>
-  </si>
-  <si>
-    <t>NTC/NTC_2020.csv</t>
-  </si>
-  <si>
-    <t>OutageFactors/##/2020_UH.csv</t>
-  </si>
-  <si>
-    <t>AvailabilityFactors/##/2020_HU.csv</t>
-  </si>
-  <si>
-    <t>HydroData/ScaledInflows/##/1980.csv</t>
-  </si>
-  <si>
     <t>PowerPlants/##/2020_HU_SIN.csv</t>
   </si>
   <si>
-    <t>HydroData/ReservoirLevel/##/2020_HU.csv</t>
+    <t>AvailabilityFactors/##/1990.csv</t>
+  </si>
+  <si>
+    <t>HydroData/ScaledInflows/##/1990.csv</t>
+  </si>
+  <si>
+    <t>HydroData/ReservoirLevel/##/2020_HU_SIN.csv</t>
   </si>
 </sst>
 </file>
@@ -1271,19 +1268,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="68.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="96.33203125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -1338,7 +1335,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
@@ -1483,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1592,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="17">
-        <v>43861</v>
+        <v>44196</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>46</v>
@@ -1680,7 +1677,7 @@
         <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>38</v>
@@ -1784,9 +1781,6 @@
       </c>
       <c r="C101" s="4" t="b">
         <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1894,7 +1888,7 @@
         <v>10</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>63</v>
@@ -1911,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -1963,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>63</v>
@@ -2012,7 +2006,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>
@@ -3260,7 +3254,7 @@
       <formula>NOT(ISERROR(SEARCH("TRUE",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="480" yWindow="514" count="33">
+  <dataValidations xWindow="394" yWindow="494" count="33">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C34:D34" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C57" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
@@ -3270,6 +3264,7 @@
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C132" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F168 F181:F187" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C275" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C276" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
@@ -3279,8 +3274,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max load)" prompt="In case no data file is provided. This single value is used for all the sets._x000a_It is defined in % of the maximum load throughout the simulation period." sqref="F130" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (in EUR/t_co2)" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F167:F169" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the cplex executable" prompt="This is only useful if the Pyomo engine is selected and if cplex is not in the PATH (i.e. accessible from the prompt). This parameters can be left unspecified in most cases._x000a__x000a_Example:_x000a_C:\\Users\\ese-veda06\\Downloads\\solvers\\cplex.exe" sqref="C38" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reservoir inflows in MWh" sqref="C133:C134" xr:uid="{A2182D92-736D-4AB5-9718-867D85D5278A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C127" xr:uid="{DE97CF87-E392-4FE9-9A65-1B56CD18AF28}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reservoir inflows in MWh" sqref="C133" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C127" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Look Ahead Period" prompt="This is the overlap period between consecutive optimization of the rolling horizon._x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C60 C62" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>0</formula1>
       <formula2>365</formula2>
@@ -3305,13 +3300,12 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Transmission price" prompt="Table with the times series for each line. The firs line should contain the name of the considered interconnection (e.g: &quot;BE -&gt; NL&quot;)" sqref="C170" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve down requirements" prompt="Path to the time series for each zone._x000a_The unit should be MW_x000a_If not provided, a standard formula is used to evaluate the reserve needs" sqref="C162" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve up requirements" prompt="Path to the time series for each zone._x000a_The unit should be MW_x000a_If not provided, a standard formula is used to evaluate the reserve needs" sqref="C161" xr:uid="{00000000-0002-0000-0000-000020000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C132" xr:uid="{61C637AF-F899-420C-9D21-BFEEA2984A27}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="480" yWindow="514" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="394" yWindow="494" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000021000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C03586-B23E-459F-9FCD-36B8CCD5DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C8D4CA-5EED-4DAA-B921-0784EB08888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$78:$C$99</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -552,19 +552,19 @@
     <t>Bolivia 2020 case study configuration file research purposes. Four zones (CE, NO, OR, SU) are simulated. The simulated period is 1 year</t>
   </si>
   <si>
-    <t>Simulations/bolivia_base_2020</t>
-  </si>
-  <si>
     <t>PowerPlants/##/2020_HU_SIN.csv</t>
   </si>
   <si>
-    <t>AvailabilityFactors/##/1990.csv</t>
-  </si>
-  <si>
-    <t>HydroData/ScaledInflows/##/1990.csv</t>
-  </si>
-  <si>
     <t>HydroData/ReservoirLevel/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>AvailabilityFactors/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>HydroData/ScaledInflows/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>Simulations/bolivia_base_2020_HU_SIN</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -859,6 +859,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1268,8 +1271,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,16 +1289,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1310,15 +1313,15 @@
     <row r="3" spans="1:8" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" s="34" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -1334,15 +1337,15 @@
       <c r="A6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="45"/>
@@ -1480,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1780,7 +1783,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1905,7 +1908,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -2006,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>
@@ -2362,7 +2365,7 @@
       <c r="E183" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F183" s="5">
+      <c r="F183" s="46">
         <v>3.5538100337352398</v>
       </c>
       <c r="H183" s="1" t="s">
@@ -2657,7 +2660,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="47" t="s">
+      <c r="A227" s="48" t="s">
         <v>26</v>
       </c>
       <c r="B227" s="6" t="s">
@@ -2680,7 +2683,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="47"/>
+      <c r="A228" s="48"/>
       <c r="B228" s="6" t="s">
         <v>165</v>
       </c>
@@ -2701,7 +2704,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="47"/>
+      <c r="A229" s="48"/>
       <c r="B229" s="6" t="s">
         <v>166</v>
       </c>
@@ -2722,7 +2725,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="47"/>
+      <c r="A230" s="48"/>
       <c r="B230" s="6"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -2737,7 +2740,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="47"/>
+      <c r="A231" s="48"/>
       <c r="B231" s="6"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -2746,7 +2749,7 @@
       <c r="G231" s="4"/>
     </row>
     <row r="232" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="47"/>
+      <c r="A232" s="48"/>
       <c r="B232" s="6"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -2755,7 +2758,7 @@
       <c r="G232" s="4"/>
     </row>
     <row r="233" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="47"/>
+      <c r="A233" s="48"/>
       <c r="B233" s="6"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -2764,7 +2767,7 @@
       <c r="G233" s="4"/>
     </row>
     <row r="234" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="47"/>
+      <c r="A234" s="48"/>
       <c r="B234" s="6"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -2773,7 +2776,7 @@
       <c r="G234" s="4"/>
     </row>
     <row r="235" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="47"/>
+      <c r="A235" s="48"/>
       <c r="B235" s="6"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -2782,7 +2785,7 @@
       <c r="G235" s="4"/>
     </row>
     <row r="236" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="47"/>
+      <c r="A236" s="48"/>
       <c r="B236" s="6"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -2791,7 +2794,7 @@
       <c r="G236" s="4"/>
     </row>
     <row r="237" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="47"/>
+      <c r="A237" s="48"/>
       <c r="B237" s="6"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -2800,7 +2803,7 @@
       <c r="G237" s="4"/>
     </row>
     <row r="238" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="47"/>
+      <c r="A238" s="48"/>
       <c r="B238" s="6"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -2809,7 +2812,7 @@
       <c r="G238" s="4"/>
     </row>
     <row r="239" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="47"/>
+      <c r="A239" s="48"/>
       <c r="B239" s="6"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -2818,7 +2821,7 @@
       <c r="G239" s="4"/>
     </row>
     <row r="240" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="47"/>
+      <c r="A240" s="48"/>
       <c r="B240" s="6"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -2827,7 +2830,7 @@
       <c r="G240" s="4"/>
     </row>
     <row r="241" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="47"/>
+      <c r="A241" s="48"/>
       <c r="B241" s="6"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -2860,7 +2863,7 @@
       <c r="G244" s="4"/>
     </row>
     <row r="245" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="50" t="s">
+      <c r="A245" s="51" t="s">
         <v>133</v>
       </c>
       <c r="B245" s="6"/>
@@ -2871,7 +2874,7 @@
       <c r="G245" s="4"/>
     </row>
     <row r="246" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="50"/>
+      <c r="A246" s="51"/>
       <c r="B246" s="6"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -3254,7 +3257,7 @@
       <formula>NOT(ISERROR(SEARCH("TRUE",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="394" yWindow="494" count="33">
+  <dataValidations xWindow="1169" yWindow="791" count="33">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C34:D34" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C57" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
@@ -3265,7 +3268,7 @@
       <formula2>73051</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C132" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F168 F181:F187" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F168 F181:F182 F184:F187" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C275" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C276" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C277" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
@@ -3305,7 +3308,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="394" yWindow="494" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1169" yWindow="791" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000021000000}">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLIR_\Documents\git\hydro_units_bolivia\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C8D4CA-5EED-4DAA-B921-0784EB08888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$78:$C$99</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -558,19 +557,19 @@
     <t>HydroData/ReservoirLevel/##/2020_HU_SIN.csv</t>
   </si>
   <si>
+    <t>Simulations/bolivia_base_2020_SIN</t>
+  </si>
+  <si>
     <t>AvailabilityFactors/##/2020_HU_SIN.csv</t>
   </si>
   <si>
     <t>HydroData/ScaledInflows/##/2020_HU_SIN.csv</t>
-  </si>
-  <si>
-    <t>Simulations/bolivia_base_2020_HU_SIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1023,23 +1022,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1075,23 +1057,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1267,12 +1232,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1925,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>63</v>
@@ -1992,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>63</v>
@@ -3258,106 +3223,106 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1169" yWindow="791" count="33">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C34:D34" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C57" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C34:D34"/>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C57">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Stop day of the simulation" prompt="This is the last simulated day. It must be comprised within the range of dates provided within the data files." sqref="C58" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Stop day of the simulation" prompt="This is the last simulated day. It must be comprised within the range of dates provided within the data files." sqref="C58">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C132" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F168 F181:F182 F184:F187" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C275" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C276" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C277" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the storage capacity in all the zones by the provided factor" sqref="C278" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the gams folder" prompt="Example:_x000a_C:\GAMS\win64\24.3_x000a__x000a_If unspecified or non-existing, Dispa-SET will try to determine the path automatically. " sqref="C37" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max load)" prompt="In case no data file is provided. This single value is used for all the sets._x000a_It is defined in % of the maximum load throughout the simulation period." sqref="F130" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (in EUR/t_co2)" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F167:F169" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the cplex executable" prompt="This is only useful if the Pyomo engine is selected and if cplex is not in the PATH (i.e. accessible from the prompt). This parameters can be left unspecified in most cases._x000a__x000a_Example:_x000a_C:\\Users\\ese-veda06\\Downloads\\solvers\\cplex.exe" sqref="C38" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reservoir inflows in MWh" sqref="C133" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C127" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Look Ahead Period" prompt="This is the overlap period between consecutive optimization of the rolling horizon._x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C60 C62" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C132"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F168 F181:F182 F184:F187"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C275"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C276"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C277"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the storage capacity in all the zones by the provided factor" sqref="C278"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the gams folder" prompt="Example:_x000a_C:\GAMS\win64\24.3_x000a__x000a_If unspecified or non-existing, Dispa-SET will try to determine the path automatically. " sqref="C37"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max load)" prompt="In case no data file is provided. This single value is used for all the sets._x000a_It is defined in % of the maximum load throughout the simulation period." sqref="F130"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (in EUR/t_co2)" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F167:F169"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the cplex executable" prompt="This is only useful if the Pyomo engine is selected and if cplex is not in the PATH (i.e. accessible from the prompt). This parameters can be left unspecified in most cases._x000a__x000a_Example:_x000a_C:\\Users\\ese-veda06\\Downloads\\solvers\\cplex.exe" sqref="C38"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reservoir inflows in MWh" sqref="C133"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C127"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Look Ahead Period" prompt="This is the overlap period between consecutive optimization of the rolling horizon._x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C60 C62">
       <formula1>0</formula1>
       <formula2>365</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Horizon length" prompt="This is the number of days to be optimized in the rolling horizon framework. Does not include the overlap period with the next optimization horizon. _x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C59 C61" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Horizon length" prompt="This is the number of days to be optimized in the rolling horizon framework. Does not include the overlap period with the next optimization horizon. _x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C59 C61">
       <formula1>1</formula1>
       <formula2>365</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Load Shedding Costs" prompt="This number should be set to at least 400 €/MWh, depending on the zone this value might be even higher" sqref="F169" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Value of Lost Load" prompt="Value of Lost Load represents the highest ammount that customers would be willing to pay to avoid disruption. Should be set to a really high value (e.a. &gt;10e5) " sqref="F205" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Price of spillage" prompt="Involuntary water spillage in hydro reservirs. Relativley low value (e.a. &lt;5)" sqref="F206" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Water Value" prompt="Value of water for unsatisfied reservoir levels. High number (e.a. 100 &lt; x &lt; 400)" sqref="F207" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max storage)" prompt="Initial state of charge. It is defined as the % of total storage capacity." sqref="F102" xr:uid="{00000000-0002-0000-0000-000015000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max storage)" prompt="FInal state of charge. It is defined as the % of total storage capacity." sqref="F103" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hourly temperature data" prompt="Path to the tempeature time series for each zone._x000a_This is required for heating technologies (e.g. temperature-dependent COP)" sqref="C136" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Flexible demand input file" prompt="The &quot;Flexible Demand&quot; is the proportion of the demand curve that can be time-shifted (min: 0, max: 1)" sqref="C126" xr:uid="{00000000-0002-0000-0000-000018000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Flexible demand default value" prompt="The &quot;Flexible Demand&quot; is the proportion of the demand curve that can be time-shifted (min: 0, max: 1)" sqref="F126" xr:uid="{00000000-0002-0000-0000-000019000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Share of 2U quick start units" prompt="between 0 and 1" sqref="F164" xr:uid="{00000000-0002-0000-0000-00001A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Demand flexiblity" prompt="Number of hours by which the flexible demand can be shifted" sqref="F163" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default transmission price" prompt="this default value will be applied to all transmission lines for which detailed data has not been found" sqref="F170" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Defaut transmission price" prompt="This number should be set to at least 400 €/MWh, depending on the zone this value might be even higher" sqref="F170" xr:uid="{00000000-0002-0000-0000-00001D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Transmission price" prompt="Table with the times series for each line. The firs line should contain the name of the considered interconnection (e.g: &quot;BE -&gt; NL&quot;)" sqref="C170" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve down requirements" prompt="Path to the time series for each zone._x000a_The unit should be MW_x000a_If not provided, a standard formula is used to evaluate the reserve needs" sqref="C162" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve up requirements" prompt="Path to the time series for each zone._x000a_The unit should be MW_x000a_If not provided, a standard formula is used to evaluate the reserve needs" sqref="C161" xr:uid="{00000000-0002-0000-0000-000020000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Load Shedding Costs" prompt="This number should be set to at least 400 €/MWh, depending on the zone this value might be even higher" sqref="F169"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Value of Lost Load" prompt="Value of Lost Load represents the highest ammount that customers would be willing to pay to avoid disruption. Should be set to a really high value (e.a. &gt;10e5) " sqref="F205"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Price of spillage" prompt="Involuntary water spillage in hydro reservirs. Relativley low value (e.a. &lt;5)" sqref="F206"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Water Value" prompt="Value of water for unsatisfied reservoir levels. High number (e.a. 100 &lt; x &lt; 400)" sqref="F207"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max storage)" prompt="Initial state of charge. It is defined as the % of total storage capacity." sqref="F102"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max storage)" prompt="FInal state of charge. It is defined as the % of total storage capacity." sqref="F103"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hourly temperature data" prompt="Path to the tempeature time series for each zone._x000a_This is required for heating technologies (e.g. temperature-dependent COP)" sqref="C136"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Flexible demand input file" prompt="The &quot;Flexible Demand&quot; is the proportion of the demand curve that can be time-shifted (min: 0, max: 1)" sqref="C126"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Flexible demand default value" prompt="The &quot;Flexible Demand&quot; is the proportion of the demand curve that can be time-shifted (min: 0, max: 1)" sqref="F126"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Share of 2U quick start units" prompt="between 0 and 1" sqref="F164"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Demand flexiblity" prompt="Number of hours by which the flexible demand can be shifted" sqref="F163"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default transmission price" prompt="this default value will be applied to all transmission lines for which detailed data has not been found" sqref="F170"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Defaut transmission price" prompt="This number should be set to at least 400 €/MWh, depending on the zone this value might be even higher" sqref="F170"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Transmission price" prompt="Table with the times series for each line. The firs line should contain the name of the considered interconnection (e.g: &quot;BE -&gt; NL&quot;)" sqref="C170"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve down requirements" prompt="Path to the time series for each zone._x000a_The unit should be MW_x000a_If not provided, a standard formula is used to evaluate the reserve needs" sqref="C162"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve up requirements" prompt="Path to the time series for each zone._x000a_The unit should be MW_x000a_If not provided, a standard formula is used to evaluate the reserve needs" sqref="C161"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1169" yWindow="791" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000021000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C306:C320 F226:G247 C226:D247</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write GDX file" prompt="If set to true, the gdx file is written in the simulation environment directory. Note that the gdx file is required to run the GAMS optimization." xr:uid="{00000000-0002-0000-0000-000022000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write GDX file" prompt="If set to true, the gdx file is written in the simulation environment directory. Note that the gdx file is required to run the GAMS optimization.">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C35:D35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write Pickles file" prompt="If set to true, one pickle file (python data format) is written in the simulation environment directory to allow quickly retrieving the simulation inputs" xr:uid="{00000000-0002-0000-0000-000023000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write Pickles file" prompt="If set to true, one pickle file (python data format) is written in the simulation environment directory to allow quickly retrieving the simulation inputs">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C36:D36 D76</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve Calculation" prompt="This inputs allows selecting the metodology for reserve sizing_x000a_" xr:uid="{00000000-0002-0000-0000-000024000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve Calculation" prompt="This inputs allows selecting the metodology for reserve sizing_x000a_">
           <x14:formula1>
             <xm:f>Lists!$C$2:$C$11</xm:f>
           </x14:formula1>
           <xm:sqref>C78</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Allow Curtailment of Renewables" prompt="Set to true to allow curtailment" xr:uid="{00000000-0002-0000-0000-000025000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Allow Curtailment of Renewables" prompt="Set to true to allow curtailment">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C79</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform." xr:uid="{00000000-0002-0000-0000-000026000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform.">
           <x14:formula1>
             <xm:f>Lists!$B$2:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>C77</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hydro Scheduling" prompt="Select type of mid-term hydro scheduling._x000a_Off: Mid-term scheduling is not performed, hystorical reservoir levels are used instead_x000a_Regional: Performed for the whole region simultaneously_x000a_Zonal: Performed for each zone individually" xr:uid="{00000000-0002-0000-0000-000027000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hydro Scheduling" prompt="Select type of mid-term hydro scheduling._x000a_Off: Mid-term scheduling is not performed, hystorical reservoir levels are used instead_x000a_Regional: Performed for the whole region simultaneously_x000a_Zonal: Performed for each zone individually">
           <x14:formula1>
             <xm:f>Lists!$E$2:$E$6</xm:f>
           </x14:formula1>
           <xm:sqref>C99</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hydro scheduling horizon" prompt="Annual: Performes hydro scheduling for one year_x000a_Stop-date driven: Performes hydro scheduling between Start and Stop dates_x000a_" xr:uid="{00000000-0002-0000-0000-000028000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Hydro scheduling horizon" prompt="Annual: Performes hydro scheduling for one year_x000a_Stop-date driven: Performes hydro scheduling between Start and Stop dates_x000a_">
           <x14:formula1>
             <xm:f>Lists!$F$2:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>C100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Initial/Final reservoir levels" prompt="Values for the initial and final levels, usefull when no reservoir levels are proided as inputs in the Input data" xr:uid="{00000000-0002-0000-0000-000029000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Initial/Final reservoir levels" prompt="Values for the initial and final levels, usefull when no reservoir levels are proided as inputs in the Input data">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -3370,7 +3335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3475,7 +3440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -4239,7 +4204,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:D30">
+  <sortState ref="D1:D30">
     <sortCondition ref="D1"/>
   </sortState>
   <conditionalFormatting sqref="B2:O16">
@@ -4254,7 +4219,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -551,19 +551,19 @@
     <t>Bolivia 2020 case study configuration file research purposes. Four zones (CE, NO, OR, SU) are simulated. The simulated period is 1 year</t>
   </si>
   <si>
+    <t>HydroData/ReservoirLevel/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>Simulations/2020</t>
+  </si>
+  <si>
     <t>PowerPlants/##/2020_HU_SIN.csv</t>
   </si>
   <si>
-    <t>HydroData/ReservoirLevel/##/2020_HU_SIN.csv</t>
-  </si>
-  <si>
-    <t>Simulations/bolivia_base_2020_SIN</t>
-  </si>
-  <si>
-    <t>AvailabilityFactors/##/2020_HU_SIN.csv</t>
-  </si>
-  <si>
-    <t>HydroData/ScaledInflows/##/2020_HU_SIN.csv</t>
+    <t>HydroData/ScaledInflows/##/2020.csv</t>
+  </si>
+  <si>
+    <t>AvailabilityFactors/##/2000.csv</t>
   </si>
 </sst>
 </file>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:H330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1720,7 +1720,7 @@
         <v>34</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>113</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="H126" s="11"/>
     </row>
-    <row r="127" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>1</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>63</v>
@@ -1957,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>63</v>
@@ -1974,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -560,10 +560,10 @@
     <t>PowerPlants/##/2020_HU_SIN.csv</t>
   </si>
   <si>
-    <t>HydroData/ScaledInflows/##/2020.csv</t>
-  </si>
-  <si>
-    <t>AvailabilityFactors/##/2000.csv</t>
+    <t>AvailabilityFactors/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>HydroData/ScaledInflows/##/2020_HU_SIN.csv</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1236,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="17">
-        <v>44196</v>
+        <v>43861</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>46</v>
@@ -1720,7 +1720,7 @@
         <v>34</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>113</v>
@@ -1748,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>63</v>
@@ -1957,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>63</v>
@@ -3222,7 +3222,7 @@
       <formula>NOT(ISERROR(SEARCH("TRUE",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1169" yWindow="791" count="33">
+  <dataValidations xWindow="591" yWindow="444" count="33">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C34:D34"/>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C57">
       <formula1>1</formula1>
@@ -3273,7 +3273,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1169" yWindow="791" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="591" yWindow="444" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -1236,7 +1236,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
@@ -1720,7 +1720,7 @@
         <v>34</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>113</v>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -551,19 +551,19 @@
     <t>Bolivia 2020 case study configuration file research purposes. Four zones (CE, NO, OR, SU) are simulated. The simulated period is 1 year</t>
   </si>
   <si>
+    <t>HydroData/ScaledInflows/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
     <t>HydroData/ReservoirLevel/##/2020_HU_SIN.csv</t>
   </si>
   <si>
-    <t>Simulations/2020</t>
+    <t>AvailabilityFactors/##/2020_HU_SIN.csv</t>
   </si>
   <si>
     <t>PowerPlants/##/2020_HU_SIN.csv</t>
   </si>
   <si>
-    <t>AvailabilityFactors/##/2020_HU_SIN.csv</t>
-  </si>
-  <si>
-    <t>HydroData/ScaledInflows/##/2020_HU_SIN.csv</t>
+    <t>Simulations/2020_HU_SIN</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1236,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="17">
-        <v>43861</v>
+        <v>44196</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>46</v>
@@ -1873,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>63</v>
@@ -1957,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>63</v>
@@ -1974,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -542,9 +542,6 @@
     <t>Load/##/2020.csv</t>
   </si>
   <si>
-    <t>OutageFactors/##/2020.csv</t>
-  </si>
-  <si>
     <t>NTC/NTC_2020.csv</t>
   </si>
   <si>
@@ -564,6 +561,9 @@
   </si>
   <si>
     <t>Simulations/2020_HU_SIN</t>
+  </si>
+  <si>
+    <t>OutageFactors/##/2020_HU_SIN.csv</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1236,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -1448,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1856,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>63</v>
@@ -1873,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>63</v>
@@ -1890,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>63</v>
@@ -1925,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D131" s="18" t="s">
         <v>63</v>
@@ -1957,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D133" s="18" t="s">
         <v>63</v>
@@ -1974,7 +1974,7 @@
         <v>10</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>63</v>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E228" s="6" t="s">
         <v>169</v>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -560,10 +560,10 @@
     <t>PowerPlants/##/2020_HU_SIN.csv</t>
   </si>
   <si>
-    <t>Simulations/2020_HU_SIN</t>
-  </si>
-  <si>
     <t>OutageFactors/##/2020_HU_SIN.csv</t>
+  </si>
+  <si>
+    <t>Simulations</t>
   </si>
 </sst>
 </file>
@@ -1236,8 +1236,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D34" s="13"/>
       <c r="H34" s="1" t="s">
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="17">
-        <v>44196</v>
+        <v>43840</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>46</v>
@@ -1856,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>63</v>

--- a/ConfigFiles/ConfigBO_2020_HU.xlsx
+++ b/ConfigFiles/ConfigBO_2020_HU.xlsx
@@ -1236,8 +1236,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1557,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="C58" s="17">
-        <v>43840</v>
+        <v>44196</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>46</v>
